--- a/reply_messages.xlsx
+++ b/reply_messages.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsaac/pythonProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{BC8154AB-1AEC-944F-BE9C-C0C25036015A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA278C72-A137-9C45-9E05-04F9B608B6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9BC24130-4803-904F-A16F-52C1D6B5D911}"/>
+    <workbookView xWindow="-38400" yWindow="-2740" windowWidth="38400" windowHeight="21600" xr2:uid="{9BC24130-4803-904F-A16F-52C1D6B5D911}"/>
   </bookViews>
   <sheets>
     <sheet name="reply_message" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="162">
   <si>
     <t>reply_message_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -583,10 +582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ "type": "text", "text": "每棵松樹上都會有這樣的編號，方便管理樹木的健康狀態" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tree_picture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,6 +590,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wrong_place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look_familiar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theif_left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awesome_board_relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bike_park_same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plastic_circle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>{ "type": "text", "text": "</t>
     </r>
@@ -606,7 +629,7 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>你們好像走錯地方了</t>
+      <t>讓我看一下...，這不是有球嗎（請回傳「有球」）</t>
     </r>
     <r>
       <rPr>
@@ -620,88 +643,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wrong_place</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>look_familiar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theif_left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>awesome_board_relation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bike_park_same</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plastic_circle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{ "type": "text", "text": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>讓我看一下...，這不是有球嗎（請回傳「有球」）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>" }</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>let_me_see_ball</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{ "type": "text", "text": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不是ㄟ再看一下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>" }</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>check_again</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1195,9 +1140,6 @@
   </si>
   <si>
     <t>{ "type": "text", "text": "哈囉～可以麻煩您輸入遊戲包密碼嗎？？" }</t>
-  </si>
-  <si>
-    <t>{ "type": "text", "text": "群組人數不得超過5人喔～～請調整群組人數" }</t>
   </si>
   <si>
     <r>
@@ -2788,88 +2730,6 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>原來是壘球社嗎，看一下裡面有什麼可疑的東西，然後聯絡壘球社的負責人吧！就麻煩身為系壘一員的張菲聯絡一下了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>&gt;&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>（聯絡完成請點選下面按鈕）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>聯絡完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "text": "#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>聯絡完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "data": "section=baseball&amp;action=contact_sure"}}]}}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"type": "text", "text": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
       <t>是什麼怪怪的事情？</t>
     </r>
     <r>
@@ -3366,7 +3226,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>對照著壘球社長傳的照片，請問他們所在的告示欄是在哪兩棵松樹之間呢？（松樹上皆有編號，請回傳最接近的兩棵松樹的平均數）</t>
+      <t>大家不覺得那個告示欄有點眼熟嗎？好像在哪裡看過（請回傳正確詞語兩個字）</t>
     </r>
     <r>
       <rPr>
@@ -3385,7 +3245,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>松樹上的數字？</t>
+      <t>是嘛我沒有印象ㄟ</t>
     </r>
     <r>
       <rPr>
@@ -3404,16 +3264,16 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>松樹上的數字？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "data": "section=football&amp;action=tree_picture"}}]}}</t>
+      <t>是嘛我沒有印象ㄟ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "data": "section=football&amp;action=theif_left"}}]}}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3425,11 +3285,11 @@
       <rPr>
         <sz val="14"/>
         <color rgb="FF212121"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>大家不覺得那個告示欄有點眼熟嗎？好像在哪裡看過（請回傳正確詞語兩個字）</t>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>太好了！那他跟那這面告示板有什麼關聯之處嗎？（請回傳正確詞語兩個字）</t>
     </r>
     <r>
       <rPr>
@@ -3444,11 +3304,11 @@
       <rPr>
         <sz val="14"/>
         <color rgb="FF212121"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是嘛我沒有印象ㄟ</t>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我們好像有點笨看不出來有什麼關聯</t>
     </r>
     <r>
       <rPr>
@@ -3463,113 +3323,6 @@
       <rPr>
         <sz val="14"/>
         <color rgb="FF212121"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是嘛我沒有印象ㄟ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "data": "section=football&amp;action=theif_left"}}]}}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"type": "text", "text": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>就是那個犯人遺落的物品啊，在至道樓前面撿到的那一包裡面！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>我找到了！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "text": "#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>我找到了！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "data": "section=football&amp;action=awesome_board_relation"}}]}}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"type": "text", "text": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>太好了！那他跟那這面告示板有什麼關聯之處嗎？（請回傳正確詞語兩個字）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
         <rFont val="PMingLiU"/>
         <family val="1"/>
         <charset val="136"/>
@@ -3583,253 +3336,7 @@
         <rFont val="Courier New"/>
         <family val="1"/>
       </rPr>
-      <t>", "text": "#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>我們好像有點笨看不出來有什麼關聯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
       <t>", "data": "section=football&amp;action=bike_park_same"}}]}}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"type": "text", "text": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>他跟女十四舍腳踏車停車場是一樣的套路啊朋友</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>我們可能智商不到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>吧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "text": "#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>我們可能智商不到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>吧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "data": "section=football&amp;action=plastic_circle"}}]}}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"type": "text", "text": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>請拿出透明塑膠片對上告示板，上面圈起來的字是什麼？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>我們這群蠢貨拖累你們了但我還是看不出來</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "text": "#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>我們這群蠢貨拖累你們了但我還是看不出來</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "data": "section=football&amp;action=let_me_see_ball"}}]}}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"type": "text", "text": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>那給個提示吧！［我晚點打］</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>我們好像有點笨看不出有什麼關聯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "text": "#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>我們好像有點笨看不出有什麼關聯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "data": "section=football&amp;action=let_me_see_ball"}}]}}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4111,68 +3618,6 @@
   </si>
   <si>
     <r>
-      <t>{"type": "text", "text": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Wawati TC"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>再仔細看一下，他打開的是左邊數起來第幾個，上面數起來第幾個？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Wawati TC"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>告訴我吧我視力不好</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "text": "#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Wawati TC"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>告訴我吧我視力不好</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF212121"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>", "data": "section=baseball&amp;action=left_four_top_down_three"}}]}}</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>{
   "type": "template",
   "altText": "this is a buttons template",
@@ -4201,6 +3646,740 @@
     ]
   }
 }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_questionable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep_evidence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slogan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>softballwin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type": "text", "text": "看一下裡面有什麼可疑的東西吧看一下裡面有什麼可疑的東西吧", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "有奇怪的紙條", "text": "#有奇怪的紙條", "data": "section=baseball&amp;action=keep_evidence"}}]}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"type": "text", "text": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Wawati TC"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>再仔細看一下，他打開的是左邊數起來第幾個，上面數起來第幾個？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Wawati TC"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>告訴我吧我視力不好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "text": "#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Wawati TC"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>告訴我吧我視力不好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "data": "section=baseball&amp;action=left_four_top_down_three"}}]}}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"type": "text", "text": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我們先不要動它吧！保留證據。請問上面有寫什麼嗎？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>好像有什麼口號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "text": "#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>好像有什麼口號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "data": "section=baseball&amp;action=slogan"}}]}}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{ "type": "text", "text": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>欸？口號？是什麼社團的筆記嗎？口號內容是什麼啊？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>" }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "一個小偷動作還這麼多啊...真不要臉..." }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"type": "text", "text": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>那我們聯絡一下壘球社的負責人吧！看看他們有沒有什麼線索，就麻煩身為系壘一員的張菲聯絡一下了（聯絡完成請點選下面按鈕）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>聯絡完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "text": "#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>聯絡完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "data": "section=baseball&amp;action=contact_sure"}}]}}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"type": "text", "text": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>對照著壘球社長傳的照片，請問他們所在的告示欄是在哪兩棵松樹之間呢？（松樹上皆有編號，請回傳最接近的松樹）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>松樹上的數字？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "text": "#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>松樹上的數字？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "data": "section=football&amp;action=tree_picture"}}]}}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{ "type": "text", "text": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>每棵松樹上都會有這樣的編號，方便管理樹木的健康狀態？請問照片中的告示板最接近的松樹是哪一棵呢？（請回傳最接近的松樹編號）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>" }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "type": "text", "text": "你們應該走到綜合教學大樓那條小徑上的" }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type": "text", "text": "你們好像走錯地方了（可繼續回傳）", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "到底是多少", "text": "#到底是多少", "data": "section=football&amp;action=should_path"}}]}}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"type": "text", "text": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>就是那個在至道樓前面撿到的那一盒裡面好像有跟這個東西有關的一個信封！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我找到了！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "text": "#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我找到了！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "data": "section=football&amp;action=awesome_board_relation"}}]}}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"type": "text", "text": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>朋友！他好像可以對上那個告示板！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我們可能智商不到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>吧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "text": "#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我們可能智商不到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>吧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "data": "section=football&amp;action=plastic_circle"}}]}}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"type": "text", "text": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>請拿出透明塑膠片對上告示板，上面指到的字是什麼？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我們這群蠢貨拖累你們了但我還是看不出來</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "text": "#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我們這群蠢貨拖累你們了但我還是看不出來</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "data": "section=football&amp;action=let_me_see_ball"}}]}}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"type": "text", "text": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>那給個提示吧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我們好像有點笨看不出有什麼關聯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "text": "#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我們好像有點笨看不出有什麼關聯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "data": "section=football&amp;action=let_me_see_ball"}}]}}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"type": "text", "text": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不是ㄟ再看一下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "quickReply": {"items": [{"type": "action", "action": {"type": "postback", "label": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我看不出來</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "text": "#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>我看不出來</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF212121"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>", "data": "section=football&amp;action=hint_later"}}]}}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{ "type": "text", "text": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>群組人數不得超過</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>人喔～～請調整群組人數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>" }</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4667,10 +4846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CB9F3B-B801-1942-8728-2970366ED2ED}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="165" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4721,7 +4900,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -4738,7 +4917,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3"/>
       <c r="G3" t="s">
@@ -4753,7 +4932,7 @@
     </row>
     <row r="4" spans="1:10" ht="20">
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>12</v>
@@ -4767,7 +4946,7 @@
     </row>
     <row r="5" spans="1:10" ht="20">
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
@@ -4781,7 +4960,7 @@
     </row>
     <row r="6" spans="1:10" ht="20">
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -4795,7 +4974,7 @@
     </row>
     <row r="7" spans="1:10" ht="20">
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -4809,7 +4988,7 @@
     </row>
     <row r="8" spans="1:10" ht="20">
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -4823,7 +5002,7 @@
     </row>
     <row r="9" spans="1:10" ht="20">
       <c r="B9" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -4837,7 +5016,7 @@
     </row>
     <row r="10" spans="1:10" ht="20">
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
@@ -4851,7 +5030,7 @@
     </row>
     <row r="11" spans="1:10" ht="20">
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -4865,7 +5044,7 @@
     </row>
     <row r="12" spans="1:10" ht="20">
       <c r="B12" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -4879,7 +5058,7 @@
     </row>
     <row r="13" spans="1:10" ht="20">
       <c r="B13" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
@@ -4907,10 +5086,10 @@
     </row>
     <row r="15" spans="1:10" ht="21">
       <c r="B15" s="9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -4927,7 +5106,7 @@
     </row>
     <row r="16" spans="1:10" ht="20">
       <c r="B16" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
@@ -4941,7 +5120,7 @@
     </row>
     <row r="17" spans="2:10" ht="20">
       <c r="B17" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -4969,7 +5148,7 @@
     </row>
     <row r="19" spans="2:10" ht="20">
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -4983,7 +5162,7 @@
     </row>
     <row r="20" spans="2:10" ht="20">
       <c r="B20" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
@@ -4997,7 +5176,7 @@
     </row>
     <row r="21" spans="2:10" ht="20">
       <c r="B21" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -5011,7 +5190,7 @@
     </row>
     <row r="22" spans="2:10" ht="20">
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
@@ -5025,7 +5204,7 @@
     </row>
     <row r="23" spans="2:10" ht="20">
       <c r="B23" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
@@ -5039,7 +5218,7 @@
     </row>
     <row r="24" spans="2:10" ht="20">
       <c r="B24" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -5081,7 +5260,7 @@
     </row>
     <row r="27" spans="2:10" ht="20">
       <c r="B27" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
@@ -5140,7 +5319,7 @@
         <v>57</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
@@ -5155,9 +5334,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="19">
+    <row r="32" spans="2:10" ht="22">
       <c r="B32" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G32" t="s">
         <v>33</v>
@@ -5185,7 +5364,7 @@
     </row>
     <row r="34" spans="2:10" ht="20">
       <c r="B34" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
@@ -5197,35 +5376,29 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="21">
-      <c r="B35" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>131</v>
+    <row r="35" spans="2:10" ht="19">
+      <c r="B35" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="16">
-      <c r="B36" s="7" t="s">
-        <v>133</v>
+    </row>
+    <row r="36" spans="2:10" ht="20">
+      <c r="B36" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>14</v>
@@ -5233,41 +5406,50 @@
     </row>
     <row r="37" spans="2:10" ht="20">
       <c r="B37" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G37" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="20">
-      <c r="B38" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="21">
+      <c r="B38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="G38" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" ht="20">
-      <c r="B39" s="2" t="s">
-        <v>135</v>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="16">
+      <c r="B39" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="G39" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>14</v>
@@ -5275,13 +5457,13 @@
     </row>
     <row r="40" spans="2:10" ht="20">
       <c r="B40" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G40" t="s">
         <v>67</v>
       </c>
       <c r="H40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>14</v>
@@ -5289,13 +5471,13 @@
     </row>
     <row r="41" spans="2:10" ht="20">
       <c r="B41" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G41" t="s">
         <v>67</v>
       </c>
       <c r="H41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>14</v>
@@ -5303,13 +5485,13 @@
     </row>
     <row r="42" spans="2:10" ht="20">
       <c r="B42" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G42" t="s">
         <v>67</v>
       </c>
       <c r="H42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>14</v>
@@ -5317,243 +5499,299 @@
     </row>
     <row r="43" spans="2:10" ht="20">
       <c r="B43" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G43" t="s">
         <v>67</v>
       </c>
       <c r="H43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="19">
-      <c r="B44" s="1" t="s">
-        <v>77</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="20">
+      <c r="B44" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="G44" t="s">
         <v>67</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J44" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="20">
-      <c r="B45" s="1" t="s">
-        <v>80</v>
+      <c r="B45" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="G45" t="s">
         <v>67</v>
       </c>
       <c r="H45" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="20">
       <c r="B46" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G46" t="s">
         <v>67</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="20">
-      <c r="B47" s="2" t="s">
-        <v>141</v>
+      <c r="B47" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="G47" t="s">
         <v>67</v>
       </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" ht="20">
-      <c r="B48" s="2" t="s">
-        <v>142</v>
+        <v>75</v>
+      </c>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="19">
+      <c r="B48" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="G48" t="s">
         <v>67</v>
       </c>
       <c r="H48" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="20">
-      <c r="B49" s="2" t="s">
-        <v>143</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="19">
+      <c r="B49" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="G49" t="s">
         <v>67</v>
       </c>
       <c r="H49" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="20">
       <c r="B50" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G50" t="s">
         <v>67</v>
       </c>
       <c r="H50" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="20">
-      <c r="B51" s="1" t="s">
-        <v>88</v>
+      <c r="B51" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="G51" t="s">
         <v>67</v>
       </c>
       <c r="H51" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="20">
-      <c r="B52" s="1" t="s">
-        <v>90</v>
+      <c r="B52" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="G52" t="s">
         <v>67</v>
       </c>
       <c r="H52" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="20">
       <c r="B53" s="2" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G53" t="s">
         <v>67</v>
       </c>
       <c r="H53" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J53" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="20">
       <c r="B54" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G54" t="s">
         <v>67</v>
       </c>
       <c r="H54" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" ht="16">
-      <c r="B55" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>147</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="20">
+      <c r="B55" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="G55" t="s">
         <v>67</v>
       </c>
       <c r="H55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="20">
+      <c r="B56" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H56" t="s">
+        <v>88</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="20">
+      <c r="B57" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G57" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" t="s">
+        <v>89</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="20">
+      <c r="B58" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G58" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="16">
+      <c r="B59" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G59" t="s">
+        <v>67</v>
+      </c>
+      <c r="H59" t="s">
+        <v>93</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="19">
+      <c r="B60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60" t="s">
+        <v>95</v>
+      </c>
+      <c r="H60" t="s">
         <v>96</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I60" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="20">
+      <c r="B61" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61" t="s">
+        <v>95</v>
+      </c>
+      <c r="H61" t="s">
+        <v>98</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" ht="19">
-      <c r="B56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G56" t="s">
-        <v>98</v>
-      </c>
-      <c r="H56" t="s">
-        <v>99</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" ht="19">
-      <c r="B57" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G57" t="s">
-        <v>98</v>
-      </c>
-      <c r="H57" t="s">
-        <v>101</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" ht="19">
-      <c r="B58" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G58" t="s">
-        <v>115</v>
-      </c>
-      <c r="H58" t="s">
-        <v>116</v>
-      </c>
-      <c r="I58" s="5" t="s">
+    </row>
+    <row r="62" spans="2:10" ht="19">
+      <c r="B62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G62" t="s">
+        <v>111</v>
+      </c>
+      <c r="H62" t="s">
+        <v>112</v>
+      </c>
+      <c r="I62" s="5" t="s">
         <v>14</v>
       </c>
     </row>
